--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A299E3-55E1-4333-AB73-0359C38DC1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5A2B42-EB40-4539-BBC5-70C7D2DFB5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>Программа управления растоворо-бетонным узлом</t>
   </si>
   <si>
-    <t>localhost</t>
+    <t>192.168.100.70</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5A2B42-EB40-4539-BBC5-70C7D2DFB5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D812C4-E540-499A-A550-23AF611224ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>db_2048_Eventsbase</t>
   </si>
   <si>
-    <t>db_2048_Reports</t>
-  </si>
-  <si>
     <t>db_2048_LabAssist_Eventsbase</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>192.168.100.70</t>
+  </si>
+  <si>
+    <t>DbRbu</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -750,13 +750,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="10"/>
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="11"/>
@@ -803,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="11"/>
@@ -813,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="11"/>
@@ -823,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="11"/>
@@ -842,14 +842,14 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D812C4-E540-499A-A550-23AF611224ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D4BBB-DB75-4632-99CC-54AFC2467895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Oбъект</t>
   </si>
@@ -106,55 +106,59 @@
     <t>Title</t>
   </si>
   <si>
-    <t>db_Invoices_1C</t>
-  </si>
-  <si>
     <t>//Priemka_1C</t>
   </si>
   <si>
-    <t>db_2048_Eventsbase</t>
-  </si>
-  <si>
-    <t>db_2048_LabAssist_Eventsbase</t>
-  </si>
-  <si>
-    <t>db_2048_Invoices</t>
-  </si>
-  <si>
-    <t>db_2048_Service</t>
-  </si>
-  <si>
-    <t>db_2048_EnergyReports</t>
-  </si>
-  <si>
-    <t>db_2048_Analyzes</t>
-  </si>
-  <si>
     <t>РБУ</t>
   </si>
   <si>
-    <t>db_2048_Rbu_Database</t>
-  </si>
-  <si>
-    <t>Data\WaterTables\2048_Water_Rbu.xlsx</t>
-  </si>
-  <si>
     <t>Rbu</t>
   </si>
   <si>
-    <t>Data\ElectricityTables\2048_Electricity_Rbu.xlsx</t>
-  </si>
-  <si>
-    <t>Data\AirTables\2048_Air_Rbu.xlsx</t>
-  </si>
-  <si>
-    <t>Программа управления растоворо-бетонным узлом</t>
-  </si>
-  <si>
     <t>192.168.100.70</t>
   </si>
   <si>
     <t>DbRbu</t>
+  </si>
+  <si>
+    <t>DbRbuDatabase</t>
+  </si>
+  <si>
+    <t>DbRbuEventsbase</t>
+  </si>
+  <si>
+    <t>Data\AirTables\Air_Rbu.xlsx</t>
+  </si>
+  <si>
+    <t>Data\WaterTables\Water_Rbu.xlsx</t>
+  </si>
+  <si>
+    <t>Data\ElectricityTables\Electricity_Rbu.xlsx</t>
+  </si>
+  <si>
+    <t>DbRbuLabAssistEventsbase</t>
+  </si>
+  <si>
+    <t>DbRbuService</t>
+  </si>
+  <si>
+    <t>DbRbuInvoices_1C</t>
+  </si>
+  <si>
+    <t>DbRbuInvoices</t>
+  </si>
+  <si>
+    <t>DbRbuEnergyReports</t>
+  </si>
+  <si>
+    <t>DbRbuAnalyzes</t>
+  </si>
+  <si>
+    <t>Cipher</t>
+  </si>
+  <si>
+    <t>Программа управления
+растворо-бетонным узлом</t>
   </si>
 </sst>
 </file>
@@ -245,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,9 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,6 +277,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +602,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,23 +611,23 @@
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="7" customWidth="1"/>
-    <col min="9" max="11" width="32.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="29.42578125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="29.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" style="7" customWidth="1"/>
-    <col min="21" max="21" width="29.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="31.85546875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="31.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="32.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="29.42578125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="31.85546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="31.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -628,33 +635,33 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -667,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -675,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -695,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -703,60 +710,60 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -764,99 +771,105 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2048</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D4BBB-DB75-4632-99CC-54AFC2467895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E027A8B-3083-4959-B688-5E820CE443E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="1335" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Rbu</t>
   </si>
   <si>
-    <t>192.168.100.70</t>
-  </si>
-  <si>
     <t>DbRbu</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   <si>
     <t>Программа управления
 растворо-бетонным узлом</t>
+  </si>
+  <si>
+    <t>192.168.100.90</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -682,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -757,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10"/>
@@ -800,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="10"/>
@@ -810,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="10"/>
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="10"/>
@@ -830,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
@@ -849,14 +849,14 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>2048</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E027A8B-3083-4959-B688-5E820CE443E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB6FD4C-443C-49D0-A746-65DB6CF97AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Oбъект</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>192.168.100.90</t>
+  </si>
+  <si>
+    <t>CheckVersion</t>
   </si>
 </sst>
 </file>
@@ -279,11 +282,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873DFC9-5EB5-42AA-B27E-8D7A5DD4C0B0}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,10 +848,10 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="5"/>
@@ -865,11 +868,19 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>43</v>
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB6FD4C-443C-49D0-A746-65DB6CF97AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA32FDD-BE00-4159-9BA1-AACD9BD0ADDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AsuBeton\2048_РБУ\PC\2048_Rbu\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA32FDD-BE00-4159-9BA1-AACD9BD0ADDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE673EE6-7761-4F81-A2AC-0E470B762505}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Oбъект</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>CheckVersion</t>
+  </si>
+  <si>
+    <t>localhost</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -685,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AsuBeton\2048_РБУ\PC\2048_Rbu\2048_Rbu\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE673EE6-7761-4F81-A2AC-0E470B762505}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C337CCDC-7526-4749-BE97-1F62814560CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Oбъект</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>CheckVersion</t>
-  </si>
-  <si>
-    <t>localhost</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -688,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C337CCDC-7526-4749-BE97-1F62814560CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BA5D5-C615-4950-8830-EAF25BB0FCBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Oбъект</t>
   </si>
@@ -154,14 +154,17 @@
     <t>Cipher</t>
   </si>
   <si>
-    <t>Программа управления
+    <t>CheckVersion</t>
+  </si>
+  <si>
+    <t>192.168.100.90</t>
+  </si>
+  <si>
+    <t>Программа управления 
 растворо-бетонным узлом</t>
   </si>
   <si>
-    <t>192.168.100.90</t>
-  </si>
-  <si>
-    <t>CheckVersion</t>
+    <t>localhost</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -685,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -852,7 +855,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
@@ -869,7 +872,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Files\Work\Project\2020\2048_РБУ\PC\2048_RBU\2048_Rbu\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\Darvas\Git\ASU-Techno_2048_RBU\2048_Rbu\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BA5D5-C615-4950-8830-EAF25BB0FCBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593AD2B-654F-431B-B852-01D28B5F9DEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 растворо-бетонным узлом</t>
   </si>
   <si>
-    <t>localhost</t>
+    <t>192.168.100.70</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\Darvas\Git\ASU-Techno_2048_RBU\2048_Rbu\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593AD2B-654F-431B-B852-01D28B5F9DEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC8B41-0F67-4AA4-A89D-9FD3BE0D7801}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Oбъект</t>
   </si>
@@ -155,16 +155,13 @@
   </si>
   <si>
     <t>CheckVersion</t>
-  </si>
-  <si>
-    <t>192.168.100.90</t>
   </si>
   <si>
     <t>Программа управления 
 растворо-бетонным узлом</t>
   </si>
   <si>
-    <t>192.168.100.70</t>
+    <t>192.168.100.104</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -688,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -855,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
@@ -882,7 +879,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/2048_Rbu/Data/Service.xlsx
+++ b/2048_Rbu/Data/Service.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\Darvas\Git\ASU-Techno_2048_RBU\2048_Rbu\2048_Rbu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC8B41-0F67-4AA4-A89D-9FD3BE0D7801}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9886E643-A981-4A85-AEEB-2F4479597EA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A7DC8BC-89CE-448E-885C-39A392A11F89}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 растворо-бетонным узлом</t>
   </si>
   <si>
-    <t>192.168.100.104</t>
+    <t>localhost</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
